--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8949_DifferentTypesInSpreadsheets.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8949_DifferentTypesInSpreadsheets.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A8E8C8-F3FD-492A-B63E-F29C80E220BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCF56AE-0776-4A64-80F7-65DE55F0B9B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="11" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_st2">#REF!</definedName>
     <definedName name="_st3">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{FC2D5AC8-1AC6-4327-8B37-D2DF856C8AC3}">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{FC2D5AC8-1AC6-4327-8B37-D2DF856C8AC3}">
       <text>
         <r>
           <rPr>
@@ -525,18 +525,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -875,19 +875,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF3A826-B4DF-46A0-BED0-58E2DFF1F6CD}">
-  <dimension ref="A1:X99"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="50.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.59765625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.3984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -895,7 +895,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -903,28 +903,28 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -963,7 +963,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>31</v>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>32</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>33</v>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>86</v>
@@ -1104,37 +1104,37 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>15</v>
@@ -1206,7 +1206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>14</v>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1420,398 +1420,366 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D34" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1819,8 +1787,8 @@
   <mergeCells count="4">
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B53:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1831,965 +1799,968 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD9F21E-5B36-4036-A57A-D15CE0AECF10}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="8" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="8" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="8" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="9">
         <v>0</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8949_DifferentTypesInSpreadsheets.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8949_DifferentTypesInSpreadsheets.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCF56AE-0776-4A64-80F7-65DE55F0B9B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441829D6-F369-48DC-ABA0-57D22E64B8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="11" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>= instanceOf($Value, Long.class)</t>
   </si>
   <si>
-    <t>_res_.$Value$B[0]</t>
-  </si>
-  <si>
     <t>_res_.$Value$C</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>Spreadsheet SpreadsheetResult Inner2()</t>
+  </si>
+  <si>
+    <t>_res_.$Value$B</t>
   </si>
 </sst>
 </file>
@@ -878,16 +878,16 @@
   <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="50.59765625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.3984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -895,7 +895,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -903,19 +903,19 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -924,7 +924,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -959,11 +959,11 @@
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -972,11 +972,11 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -985,11 +985,11 @@
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -1011,11 +1011,11 @@
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -1037,11 +1037,11 @@
         <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -1050,11 +1050,11 @@
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>31</v>
@@ -1063,11 +1063,11 @@
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>32</v>
@@ -1076,11 +1076,11 @@
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>33</v>
@@ -1089,43 +1089,43 @@
         <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>12</v>
@@ -1134,79 +1134,79 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="U25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U25" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="V25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="X25" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>14</v>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1313,43 +1313,43 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1384,43 +1384,43 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>6</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1461,10 +1461,10 @@
         <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1472,12 +1472,12 @@
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>19</v>
       </c>
@@ -1498,12 +1498,12 @@
         <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
@@ -1524,12 +1524,12 @@
         <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>22</v>
       </c>
@@ -1537,12 +1537,12 @@
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>23</v>
       </c>
@@ -1550,12 +1550,12 @@
         <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>31</v>
       </c>
@@ -1563,12 +1563,12 @@
         <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>32</v>
       </c>
@@ -1576,12 +1576,12 @@
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>33</v>
       </c>
@@ -1589,41 +1589,41 @@
         <v>36</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>5</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
@@ -1650,137 +1650,137 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1803,12 +1803,12 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1834,7 +1834,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1860,7 +1860,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1886,7 +1886,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1912,10 +1912,10 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
@@ -1940,13 +1940,13 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1970,7 +1970,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -2000,7 +2000,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -2030,7 +2030,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -2060,7 +2060,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2086,7 +2086,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2112,7 +2112,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2138,7 +2138,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2164,7 +2164,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2190,7 +2190,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2216,10 +2216,10 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -2244,7 +2244,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="6" t="s">
         <v>2</v>
@@ -2276,7 +2276,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>0</v>
@@ -2306,10 +2306,10 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>27</v>
@@ -2336,7 +2336,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2362,7 +2362,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2388,7 +2388,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2414,10 +2414,10 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>5</v>
@@ -2444,7 +2444,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>0</v>
@@ -2474,13 +2474,13 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2504,13 +2504,13 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2534,7 +2534,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2560,7 +2560,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2586,7 +2586,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2612,7 +2612,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2638,10 +2638,10 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2666,7 +2666,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
         <v>2</v>
@@ -2698,7 +2698,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>0</v>
@@ -2730,10 +2730,10 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>24</v>
